--- a/bigcode-evaluation-harness/result/llama3.2-1b-instruct/evaluation_results/llama3.2-1b-instruct.xlsx
+++ b/bigcode-evaluation-harness/result/llama3.2-1b-instruct/evaluation_results/llama3.2-1b-instruct.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G21"/>
+  <dimension ref="A1:G25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -548,139 +548,139 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>mbpp_generate_cpp_robust_insert_instruct</t>
+          <t>mbpp_generate_cpp_robust_combined_perturbation_instruct</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>27</v>
+        <v>47</v>
       </c>
       <c r="C5" t="n">
-        <v>45</v>
+        <v>60</v>
       </c>
       <c r="D5" t="n">
-        <v>500</v>
+        <v>466</v>
       </c>
       <c r="E5" t="n">
-        <v>0.38</v>
+        <v>0.3776824034334764</v>
       </c>
       <c r="F5" t="n">
-        <v>0.344</v>
+        <v>0.3497854077253219</v>
       </c>
       <c r="G5" t="n">
-        <v>0.095</v>
+        <v>0.074</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>mbpp_generate_cpp_robust_rename_instruct</t>
+          <t>mbpp_generate_cpp_robust_insert_instruct</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="C6" t="n">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="D6" t="n">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>0.3807615230460922</v>
+        <v>0.38</v>
       </c>
       <c r="F6" t="n">
-        <v>0.3466933867735471</v>
+        <v>0.344</v>
       </c>
       <c r="G6" t="n">
-        <v>0.089</v>
+        <v>0.095</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>mbpp_generate_java_robust_code_expression_exchange_instruct</t>
+          <t>mbpp_generate_cpp_robust_rename_instruct</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="C7" t="n">
-        <v>83</v>
+        <v>35</v>
       </c>
       <c r="D7" t="n">
-        <v>417</v>
+        <v>499</v>
       </c>
       <c r="E7" t="n">
-        <v>0.539568345323741</v>
+        <v>0.3807615230460922</v>
       </c>
       <c r="F7" t="n">
-        <v>0.3741007194244604</v>
+        <v>0.3466933867735471</v>
       </c>
       <c r="G7" t="n">
-        <v>0.307</v>
+        <v>0.089</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>mbpp_generate_java_robust_code_stmt_exchange_instruct</t>
+          <t>mbpp_generate_java_robust_code_expression_exchange_instruct</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="C8" t="n">
-        <v>28</v>
+        <v>83</v>
       </c>
       <c r="D8" t="n">
-        <v>188</v>
+        <v>417</v>
       </c>
       <c r="E8" t="n">
-        <v>0.4627659574468085</v>
+        <v>0.539568345323741</v>
       </c>
       <c r="F8" t="n">
-        <v>0.3563829787234042</v>
+        <v>0.3741007194244604</v>
       </c>
       <c r="G8" t="n">
-        <v>0.23</v>
+        <v>0.307</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>mbpp_generate_java_robust_code_style_instruct</t>
+          <t>mbpp_generate_java_robust_code_stmt_exchange_instruct</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="C9" t="n">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="D9" t="n">
-        <v>500</v>
+        <v>188</v>
       </c>
       <c r="E9" t="n">
-        <v>0.526</v>
+        <v>0.4627659574468085</v>
       </c>
       <c r="F9" t="n">
-        <v>0.526</v>
+        <v>0.3563829787234042</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>0.23</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>mbpp_generate_java_robust_insert_instruct</t>
+          <t>mbpp_generate_java_robust_code_style_instruct</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="C10" t="n">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="D10" t="n">
         <v>500</v>
@@ -689,148 +689,148 @@
         <v>0.526</v>
       </c>
       <c r="F10" t="n">
-        <v>0.51</v>
+        <v>0.526</v>
       </c>
       <c r="G10" t="n">
-        <v>0.03</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>mbpp_generate_java_robust_rename_instruct</t>
+          <t>mbpp_generate_java_robust_combined_perturbation_instruct</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="C11" t="n">
-        <v>25</v>
+        <v>137</v>
       </c>
       <c r="D11" t="n">
-        <v>500</v>
+        <v>478</v>
       </c>
       <c r="E11" t="n">
-        <v>0.526</v>
+        <v>0.5251046025104602</v>
       </c>
       <c r="F11" t="n">
+        <v>0.2552301255230126</v>
+      </c>
+      <c r="G11" t="n">
         <v>0.514</v>
-      </c>
-      <c r="G11" t="n">
-        <v>0.023</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>mbpp_generate_javascript_robust_code_expression_exchange_instruct</t>
+          <t>mbpp_generate_java_robust_insert_instruct</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="C12" t="n">
-        <v>12</v>
+        <v>31</v>
       </c>
       <c r="D12" t="n">
-        <v>279</v>
+        <v>500</v>
       </c>
       <c r="E12" t="n">
-        <v>0.2186379928315412</v>
+        <v>0.526</v>
       </c>
       <c r="F12" t="n">
-        <v>0.2043010752688172</v>
+        <v>0.51</v>
       </c>
       <c r="G12" t="n">
-        <v>0.066</v>
+        <v>0.03</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>mbpp_generate_javascript_robust_code_stmt_exchange_instruct</t>
+          <t>mbpp_generate_java_robust_rename_instruct</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="C13" t="n">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="D13" t="n">
-        <v>178</v>
+        <v>500</v>
       </c>
       <c r="E13" t="n">
-        <v>0.1404494382022472</v>
+        <v>0.526</v>
       </c>
       <c r="F13" t="n">
-        <v>0.1067415730337079</v>
+        <v>0.514</v>
       </c>
       <c r="G13" t="n">
-        <v>0.24</v>
+        <v>0.023</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>mbpp_generate_javascript_robust_code_style_instruct</t>
+          <t>mbpp_generate_javascript_robust_code_expression_exchange_instruct</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="C14" t="n">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="D14" t="n">
-        <v>500</v>
+        <v>279</v>
       </c>
       <c r="E14" t="n">
-        <v>0.206</v>
+        <v>0.2186379928315412</v>
       </c>
       <c r="F14" t="n">
-        <v>0.18</v>
+        <v>0.2043010752688172</v>
       </c>
       <c r="G14" t="n">
-        <v>0.126</v>
+        <v>0.066</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>mbpp_generate_javascript_robust_insert_instruct</t>
+          <t>mbpp_generate_javascript_robust_code_stmt_exchange_instruct</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>72</v>
+        <v>6</v>
       </c>
       <c r="C15" t="n">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="D15" t="n">
-        <v>500</v>
+        <v>178</v>
       </c>
       <c r="E15" t="n">
-        <v>0.206</v>
+        <v>0.1404494382022472</v>
       </c>
       <c r="F15" t="n">
-        <v>0.292</v>
+        <v>0.1067415730337079</v>
       </c>
       <c r="G15" t="n">
-        <v>-0.417</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>mbpp_generate_javascript_robust_rename_instruct</t>
+          <t>mbpp_generate_javascript_robust_code_style_instruct</t>
         </is>
       </c>
       <c r="B16" t="n">
+        <v>13</v>
+      </c>
+      <c r="C16" t="n">
         <v>26</v>
-      </c>
-      <c r="C16" t="n">
-        <v>39</v>
       </c>
       <c r="D16" t="n">
         <v>500</v>
@@ -848,125 +848,225 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>mbpp_generate_python_robust_code_expression_exchange_instruct</t>
+          <t>mbpp_generate_javascript_robust_combined_perturbation_instruct</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>8</v>
+        <v>86</v>
       </c>
       <c r="C17" t="n">
-        <v>13</v>
+        <v>39</v>
       </c>
       <c r="D17" t="n">
-        <v>219</v>
+        <v>425</v>
       </c>
       <c r="E17" t="n">
-        <v>0.3470319634703196</v>
+        <v>0.2047058823529412</v>
       </c>
       <c r="F17" t="n">
-        <v>0.3242009132420091</v>
+        <v>0.3152941176470588</v>
       </c>
       <c r="G17" t="n">
-        <v>0.066</v>
+        <v>-0.54</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>mbpp_generate_python_robust_code_stmt_exchange_instruct</t>
+          <t>mbpp_generate_javascript_robust_insert_instruct</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0</v>
+        <v>72</v>
       </c>
       <c r="C18" t="n">
-        <v>1</v>
+        <v>29</v>
       </c>
       <c r="D18" t="n">
-        <v>10</v>
+        <v>500</v>
       </c>
       <c r="E18" t="n">
-        <v>0.2</v>
+        <v>0.206</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1</v>
+        <v>0.292</v>
       </c>
       <c r="G18" t="n">
-        <v>0.5</v>
+        <v>-0.417</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>mbpp_generate_python_robust_code_style_instruct</t>
+          <t>mbpp_generate_javascript_robust_rename_instruct</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="C19" t="n">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="D19" t="n">
         <v>500</v>
       </c>
       <c r="E19" t="n">
-        <v>0.418</v>
+        <v>0.206</v>
       </c>
       <c r="F19" t="n">
-        <v>0.376</v>
+        <v>0.18</v>
       </c>
       <c r="G19" t="n">
-        <v>0.1</v>
+        <v>0.126</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>mbpp_generate_python_robust_insert_instruct</t>
+          <t>mbpp_generate_python_robust_code_expression_exchange_instruct</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="C20" t="n">
-        <v>69</v>
+        <v>13</v>
       </c>
       <c r="D20" t="n">
-        <v>500</v>
+        <v>219</v>
       </c>
       <c r="E20" t="n">
-        <v>0.418</v>
+        <v>0.3470319634703196</v>
       </c>
       <c r="F20" t="n">
-        <v>0.32</v>
+        <v>0.3242009132420091</v>
       </c>
       <c r="G20" t="n">
-        <v>0.234</v>
+        <v>0.066</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
+          <t>mbpp_generate_python_robust_code_stmt_exchange_instruct</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>0</v>
+      </c>
+      <c r="C21" t="n">
+        <v>1</v>
+      </c>
+      <c r="D21" t="n">
+        <v>10</v>
+      </c>
+      <c r="E21" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="F21" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="G21" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>mbpp_generate_python_robust_code_style_instruct</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>13</v>
+      </c>
+      <c r="C22" t="n">
+        <v>34</v>
+      </c>
+      <c r="D22" t="n">
+        <v>500</v>
+      </c>
+      <c r="E22" t="n">
+        <v>0.418</v>
+      </c>
+      <c r="F22" t="n">
+        <v>0.376</v>
+      </c>
+      <c r="G22" t="n">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>mbpp_generate_python_robust_combined_perturbation_instruct</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>32</v>
+      </c>
+      <c r="C23" t="n">
+        <v>83</v>
+      </c>
+      <c r="D23" t="n">
+        <v>475</v>
+      </c>
+      <c r="E23" t="n">
+        <v>0.4189473684210526</v>
+      </c>
+      <c r="F23" t="n">
+        <v>0.3115789473684211</v>
+      </c>
+      <c r="G23" t="n">
+        <v>0.256</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>mbpp_generate_python_robust_insert_instruct</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>20</v>
+      </c>
+      <c r="C24" t="n">
+        <v>69</v>
+      </c>
+      <c r="D24" t="n">
+        <v>500</v>
+      </c>
+      <c r="E24" t="n">
+        <v>0.418</v>
+      </c>
+      <c r="F24" t="n">
+        <v>0.32</v>
+      </c>
+      <c r="G24" t="n">
+        <v>0.234</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
           <t>mbpp_generate_python_robust_rename_instruct</t>
         </is>
       </c>
-      <c r="B21" t="n">
+      <c r="B25" t="n">
         <v>17</v>
       </c>
-      <c r="C21" t="n">
+      <c r="C25" t="n">
         <v>45</v>
       </c>
-      <c r="D21" t="n">
+      <c r="D25" t="n">
         <v>500</v>
       </c>
-      <c r="E21" t="n">
+      <c r="E25" t="n">
         <v>0.418</v>
       </c>
-      <c r="F21" t="n">
+      <c r="F25" t="n">
         <v>0.362</v>
       </c>
-      <c r="G21" t="n">
+      <c r="G25" t="n">
         <v>0.134</v>
       </c>
     </row>
